--- a/materials/NLP-I/jelenlet/jelenlet_2024_cs1416.xlsx
+++ b/materials/NLP-I/jelenlet/jelenlet_2024_cs1416.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\opell\Projects\me\materials\NLP-I\jelenlet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lrobert\Downloads\deik\me\materials\NLP-I\jelenlet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43855D01-1B1D-4E1C-9EA5-4865B7D29D77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CB77A56-9211-44F9-A53D-D016A12596EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{07C5D06A-6ABB-4BE7-9F60-12023554FC87}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{07C5D06A-6ABB-4BE7-9F60-12023554FC87}"/>
   </bookViews>
   <sheets>
     <sheet name="Aláíró" sheetId="5" r:id="rId1"/>
@@ -428,12 +428,9 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normál" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="4">
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
     <dxf>
       <font>
         <b/>
@@ -452,6 +449,9 @@
         <charset val="238"/>
         <scheme val="minor"/>
       </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <font>
@@ -483,7 +483,7 @@
     <sortCondition ref="A3:A25"/>
   </sortState>
   <tableColumns count="16">
-    <tableColumn id="1" xr3:uid="{AC4A2E64-5B3A-4A78-8887-FB0803873F74}" name="Név" totalsRowLabel="CHEKSUM" dataDxfId="2" totalsRowDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{AC4A2E64-5B3A-4A78-8887-FB0803873F74}" name="Név" totalsRowLabel="CHEKSUM" dataDxfId="2" totalsRowDxfId="0"/>
     <tableColumn id="2" xr3:uid="{81CB4C41-FCE0-45F1-8D24-A54F241D9EBF}" name="2024.09.12" totalsRowFunction="custom">
       <totalsRowFormula>SUM(Táblázat3[2024.09.12])</totalsRowFormula>
     </tableColumn>
@@ -523,7 +523,7 @@
     <tableColumn id="14" xr3:uid="{B988FA89-1E4E-4372-AD4F-C4E869C0989B}" name="2024.12.12" totalsRowFunction="custom">
       <totalsRowFormula>SUM(Táblázat3[2024.12.12])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="19" xr3:uid="{4DFFAA07-C216-428D-BFF6-4165AD3A414A}" name="HIÁNYZÁS" totalsRowFunction="custom" dataDxfId="0">
+    <tableColumn id="19" xr3:uid="{4DFFAA07-C216-428D-BFF6-4165AD3A414A}" name="HIÁNYZÁS" totalsRowFunction="custom" dataDxfId="1">
       <calculatedColumnFormula>SUM(Táblázat3[[#This Row],[2024.09.12]:[2024.12.12]])</calculatedColumnFormula>
       <totalsRowFormula>SUM(Táblázat3[HIÁNYZÁS])</totalsRowFormula>
     </tableColumn>
@@ -534,9 +534,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 – 2022 téma">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -574,7 +574,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -680,7 +680,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -822,7 +822,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -839,18 +839,18 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="30.140625" customWidth="1"/>
-    <col min="2" max="2" width="1.28515625" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" customWidth="1"/>
-    <col min="4" max="4" width="1.140625" customWidth="1"/>
-    <col min="5" max="5" width="23.7109375" customWidth="1"/>
-    <col min="6" max="6" width="1.140625" customWidth="1"/>
-    <col min="7" max="7" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.1796875" customWidth="1"/>
+    <col min="2" max="2" width="1.26953125" customWidth="1"/>
+    <col min="3" max="3" width="18.54296875" customWidth="1"/>
+    <col min="4" max="4" width="1.1796875" customWidth="1"/>
+    <col min="5" max="5" width="23.7265625" customWidth="1"/>
+    <col min="6" max="6" width="1.1796875" customWidth="1"/>
+    <col min="7" max="7" width="6.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="15" t="s">
         <v>10</v>
       </c>
@@ -861,7 +861,7 @@
       <c r="F1" s="15"/>
       <c r="G1" s="15"/>
     </row>
-    <row r="2" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
@@ -878,7 +878,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="8" t="s">
         <v>24</v>
       </c>
@@ -892,7 +892,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="10" t="s">
         <v>26</v>
       </c>
@@ -906,7 +906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="10" t="s">
         <v>28</v>
       </c>
@@ -917,10 +917,10 @@
       <c r="F5" s="6"/>
       <c r="G5" s="9">
         <f>VLOOKUP(A5,Táblázat3[],15)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="10" t="s">
         <v>30</v>
       </c>
@@ -934,7 +934,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="10" t="s">
         <v>32</v>
       </c>
@@ -948,7 +948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="10" t="s">
         <v>34</v>
       </c>
@@ -962,7 +962,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="10" t="s">
         <v>36</v>
       </c>
@@ -976,7 +976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="10" t="s">
         <v>38</v>
       </c>
@@ -990,7 +990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="10" t="s">
         <v>40</v>
       </c>
@@ -1004,7 +1004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="10" t="s">
         <v>42</v>
       </c>
@@ -1018,7 +1018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="10" t="s">
         <v>44</v>
       </c>
@@ -1032,7 +1032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="10" t="s">
         <v>46</v>
       </c>
@@ -1046,7 +1046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="10" t="s">
         <v>48</v>
       </c>
@@ -1060,7 +1060,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="10" t="s">
         <v>50</v>
       </c>
@@ -1074,7 +1074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="10" t="s">
         <v>52</v>
       </c>
@@ -1088,7 +1088,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="10" t="s">
         <v>54</v>
       </c>
@@ -1102,7 +1102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="10" t="s">
         <v>56</v>
       </c>
@@ -1116,7 +1116,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="10" t="s">
         <v>58</v>
       </c>
@@ -1130,7 +1130,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="10" t="s">
         <v>60</v>
       </c>
@@ -1144,7 +1144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="10" t="s">
         <v>62</v>
       </c>
@@ -1155,10 +1155,10 @@
       <c r="F22" s="6"/>
       <c r="G22" s="9">
         <f>VLOOKUP(A22,Táblázat3[],15)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="10" t="s">
         <v>64</v>
       </c>
@@ -1169,10 +1169,10 @@
       <c r="F23" s="6"/>
       <c r="G23" s="9">
         <f>VLOOKUP(A23,Táblázat3[],15)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="10" t="s">
         <v>65</v>
       </c>
@@ -1186,7 +1186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A25" s="14" t="s">
         <v>66</v>
       </c>
@@ -1197,10 +1197,10 @@
       <c r="F25" s="6"/>
       <c r="G25" s="9">
         <f>VLOOKUP(A25,Táblázat3[],15)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A26" s="11"/>
       <c r="B26" s="11"/>
       <c r="C26" s="12" t="s">
@@ -1209,12 +1209,12 @@
       <c r="D26" s="11"/>
       <c r="E26" s="16">
         <f ca="1">NOW()</f>
-        <v>45568.400509606479</v>
+        <v>45575.667226157406</v>
       </c>
       <c r="F26" s="16"/>
       <c r="G26" s="16"/>
     </row>
-    <row r="27" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="11"/>
       <c r="B27" s="11"/>
       <c r="C27" s="12"/>
@@ -1223,7 +1223,7 @@
       <c r="F27" s="13"/>
       <c r="G27" s="11"/>
     </row>
-    <row r="28" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="11"/>
       <c r="B28" s="11"/>
       <c r="C28" s="12" t="s">
@@ -1234,7 +1234,7 @@
       <c r="F28" s="17"/>
       <c r="G28" s="17"/>
     </row>
-    <row r="29" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="11"/>
       <c r="B29" s="11"/>
       <c r="C29" s="11"/>
@@ -1268,19 +1268,19 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomRight" activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="47.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="14" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="47.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="6" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="14" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1" s="19">
         <v>2023</v>
       </c>
@@ -1300,7 +1300,7 @@
       <c r="O1" s="19"/>
       <c r="P1" s="19"/>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1350,7 +1350,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -1402,7 +1402,7 @@
       </c>
       <c r="Q3" s="1"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>26</v>
       </c>
@@ -1454,7 +1454,7 @@
       </c>
       <c r="Q4" s="1"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>28</v>
       </c>
@@ -1471,7 +1471,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -1499,14 +1499,14 @@
       </c>
       <c r="O5">
         <f>SUM(Táblázat3[[#This Row],[2024.09.12]:[2024.12.12]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P5" t="s">
         <v>29</v>
       </c>
       <c r="Q5" s="1"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>30</v>
       </c>
@@ -1558,7 +1558,7 @@
       </c>
       <c r="Q6" s="1"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>32</v>
       </c>
@@ -1610,7 +1610,7 @@
       </c>
       <c r="Q7" s="1"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>34</v>
       </c>
@@ -1662,7 +1662,7 @@
       </c>
       <c r="Q8" s="1"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>36</v>
       </c>
@@ -1714,7 +1714,7 @@
       </c>
       <c r="Q9" s="1"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>38</v>
       </c>
@@ -1766,7 +1766,7 @@
       </c>
       <c r="Q10" s="1"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>40</v>
       </c>
@@ -1818,7 +1818,7 @@
       </c>
       <c r="Q11" s="1"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>42</v>
       </c>
@@ -1870,7 +1870,7 @@
       </c>
       <c r="Q12" s="1"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>44</v>
       </c>
@@ -1922,7 +1922,7 @@
       </c>
       <c r="Q13" s="1"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>46</v>
       </c>
@@ -1974,7 +1974,7 @@
       </c>
       <c r="Q14" s="1"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>48</v>
       </c>
@@ -2026,7 +2026,7 @@
       </c>
       <c r="Q15" s="1"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>50</v>
       </c>
@@ -2078,7 +2078,7 @@
       </c>
       <c r="Q16" s="1"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>52</v>
       </c>
@@ -2130,7 +2130,7 @@
       </c>
       <c r="Q17" s="1"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>54</v>
       </c>
@@ -2182,7 +2182,7 @@
       </c>
       <c r="Q18" s="1"/>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>56</v>
       </c>
@@ -2234,7 +2234,7 @@
       </c>
       <c r="Q19" s="1"/>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>58</v>
       </c>
@@ -2286,7 +2286,7 @@
       </c>
       <c r="Q20" s="1"/>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>60</v>
       </c>
@@ -2338,7 +2338,7 @@
       </c>
       <c r="Q21" s="1"/>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>62</v>
       </c>
@@ -2355,7 +2355,7 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -2383,14 +2383,14 @@
       </c>
       <c r="O22">
         <f>SUM(Táblázat3[[#This Row],[2024.09.12]:[2024.12.12]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P22" t="s">
         <v>63</v>
       </c>
       <c r="Q22" s="1"/>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>64</v>
       </c>
@@ -2407,7 +2407,7 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -2435,14 +2435,14 @@
       </c>
       <c r="O23">
         <f>SUM(Táblázat3[[#This Row],[2024.09.12]:[2024.12.12]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P23" t="s">
         <v>67</v>
       </c>
       <c r="Q23" s="1"/>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>65</v>
       </c>
@@ -2494,7 +2494,7 @@
       </c>
       <c r="Q24" s="1"/>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>66</v>
       </c>
@@ -2511,7 +2511,7 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -2539,14 +2539,14 @@
       </c>
       <c r="O25">
         <f>SUM(Táblázat3[[#This Row],[2024.09.12]:[2024.12.12]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P25" t="s">
         <v>69</v>
       </c>
       <c r="Q25" s="1"/>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A26" s="3" t="s">
         <v>7</v>
       </c>
@@ -2568,7 +2568,7 @@
       </c>
       <c r="F26">
         <f>SUM(Táblázat3[2024.10.10])</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G26">
         <f>SUM(Táblázat3[2024.10.17])</f>
@@ -2604,7 +2604,7 @@
       </c>
       <c r="O26">
         <f>SUM(Táblázat3[HIÁNYZÁS])</f>
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/materials/NLP-I/jelenlet/jelenlet_2024_cs1416.xlsx
+++ b/materials/NLP-I/jelenlet/jelenlet_2024_cs1416.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\opell\Projects\me\materials\NLP-I\jelenlet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43855D01-1B1D-4E1C-9EA5-4865B7D29D77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D066DFC8-6250-4702-997F-5DA5636FB321}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{07C5D06A-6ABB-4BE7-9F60-12023554FC87}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{07C5D06A-6ABB-4BE7-9F60-12023554FC87}"/>
   </bookViews>
   <sheets>
     <sheet name="Aláíró" sheetId="5" r:id="rId1"/>
@@ -432,9 +432,6 @@
   </cellStyles>
   <dxfs count="4">
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -452,6 +449,9 @@
         <charset val="238"/>
         <scheme val="minor"/>
       </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <font>
@@ -483,7 +483,7 @@
     <sortCondition ref="A3:A25"/>
   </sortState>
   <tableColumns count="16">
-    <tableColumn id="1" xr3:uid="{AC4A2E64-5B3A-4A78-8887-FB0803873F74}" name="Név" totalsRowLabel="CHEKSUM" dataDxfId="2" totalsRowDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{AC4A2E64-5B3A-4A78-8887-FB0803873F74}" name="Név" totalsRowLabel="CHEKSUM" dataDxfId="2" totalsRowDxfId="0"/>
     <tableColumn id="2" xr3:uid="{81CB4C41-FCE0-45F1-8D24-A54F241D9EBF}" name="2024.09.12" totalsRowFunction="custom">
       <totalsRowFormula>SUM(Táblázat3[2024.09.12])</totalsRowFormula>
     </tableColumn>
@@ -523,7 +523,7 @@
     <tableColumn id="14" xr3:uid="{B988FA89-1E4E-4372-AD4F-C4E869C0989B}" name="2024.12.12" totalsRowFunction="custom">
       <totalsRowFormula>SUM(Táblázat3[2024.12.12])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="19" xr3:uid="{4DFFAA07-C216-428D-BFF6-4165AD3A414A}" name="HIÁNYZÁS" totalsRowFunction="custom" dataDxfId="0">
+    <tableColumn id="19" xr3:uid="{4DFFAA07-C216-428D-BFF6-4165AD3A414A}" name="HIÁNYZÁS" totalsRowFunction="custom" dataDxfId="1">
       <calculatedColumnFormula>SUM(Táblázat3[[#This Row],[2024.09.12]:[2024.12.12]])</calculatedColumnFormula>
       <totalsRowFormula>SUM(Táblázat3[HIÁNYZÁS])</totalsRowFormula>
     </tableColumn>
@@ -835,7 +835,7 @@
   </sheetPr>
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
@@ -889,7 +889,7 @@
       <c r="F3" s="6"/>
       <c r="G3" s="9">
         <f>VLOOKUP(A3,Táblázat3[],15)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -903,7 +903,7 @@
       <c r="F4" s="6"/>
       <c r="G4" s="9">
         <f>VLOOKUP(A4,Táblázat3[],15)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1071,7 +1071,7 @@
       <c r="F16" s="6"/>
       <c r="G16" s="9">
         <f>VLOOKUP(A16,Táblázat3[],15)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1099,7 +1099,7 @@
       <c r="F18" s="6"/>
       <c r="G18" s="9">
         <f>VLOOKUP(A18,Táblázat3[],15)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1209,7 +1209,7 @@
       <c r="D26" s="11"/>
       <c r="E26" s="16">
         <f ca="1">NOW()</f>
-        <v>45568.400509606479</v>
+        <v>45575.532350000001</v>
       </c>
       <c r="F26" s="16"/>
       <c r="G26" s="16"/>
@@ -1264,11 +1264,11 @@
   </sheetPr>
   <dimension ref="A1:Q26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomRight" activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1364,7 +1364,7 @@
         <v>1</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -1395,7 +1395,7 @@
       </c>
       <c r="O3">
         <f>SUM(Táblázat3[[#This Row],[2024.09.12]:[2024.12.12]])</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P3" t="s">
         <v>25</v>
@@ -1416,7 +1416,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -1447,7 +1447,7 @@
       </c>
       <c r="O4">
         <f>SUM(Táblázat3[[#This Row],[2024.09.12]:[2024.12.12]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P4" t="s">
         <v>27</v>
@@ -2040,7 +2040,7 @@
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -2071,7 +2071,7 @@
       </c>
       <c r="O16">
         <f>SUM(Táblázat3[[#This Row],[2024.09.12]:[2024.12.12]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P16" t="s">
         <v>51</v>
@@ -2144,7 +2144,7 @@
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -2175,7 +2175,7 @@
       </c>
       <c r="O18">
         <f>SUM(Táblázat3[[#This Row],[2024.09.12]:[2024.12.12]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P18" t="s">
         <v>55</v>
@@ -2564,7 +2564,7 @@
       </c>
       <c r="E26">
         <f>SUM(Táblázat3[2024.10.03])</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F26">
         <f>SUM(Táblázat3[2024.10.10])</f>
@@ -2604,7 +2604,7 @@
       </c>
       <c r="O26">
         <f>SUM(Táblázat3[HIÁNYZÁS])</f>
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/materials/NLP-I/jelenlet/jelenlet_2024_cs1416.xlsx
+++ b/materials/NLP-I/jelenlet/jelenlet_2024_cs1416.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\opell\Projects\me\materials\NLP-I\jelenlet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D066DFC8-6250-4702-997F-5DA5636FB321}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5198CCB0-456B-4F94-A513-6508772D892F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{07C5D06A-6ABB-4BE7-9F60-12023554FC87}"/>
+    <workbookView xWindow="-28920" yWindow="5235" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{07C5D06A-6ABB-4BE7-9F60-12023554FC87}"/>
   </bookViews>
   <sheets>
     <sheet name="Aláíró" sheetId="5" r:id="rId1"/>
@@ -67,185 +67,185 @@
     <t>Aláírás</t>
   </si>
   <si>
+    <t>2024.09.12</t>
+  </si>
+  <si>
+    <t>2024.09.19</t>
+  </si>
+  <si>
+    <t>2023.09.26</t>
+  </si>
+  <si>
+    <t>2024.10.03</t>
+  </si>
+  <si>
+    <t>2024.10.10</t>
+  </si>
+  <si>
+    <t>2024.10.17</t>
+  </si>
+  <si>
+    <t>2024.10.31</t>
+  </si>
+  <si>
+    <t>2024.11.07</t>
+  </si>
+  <si>
+    <t>2024.11.14</t>
+  </si>
+  <si>
+    <t>2024.11.21</t>
+  </si>
+  <si>
+    <t>2024.11.28</t>
+  </si>
+  <si>
+    <t>2024.12.12</t>
+  </si>
+  <si>
+    <t>2024.12.05</t>
+  </si>
+  <si>
+    <t>Baksay Csanád Bátor</t>
+  </si>
+  <si>
+    <t>B6CZ5S</t>
+  </si>
+  <si>
+    <t>Balogh András</t>
+  </si>
+  <si>
+    <t>C2RUJH</t>
+  </si>
+  <si>
+    <t>Balogh Levente</t>
+  </si>
+  <si>
+    <t>EGXYOP</t>
+  </si>
+  <si>
+    <t>Csendes Dávid</t>
+  </si>
+  <si>
+    <t>C59W4X</t>
+  </si>
+  <si>
+    <t>Erdős Csaba</t>
+  </si>
+  <si>
+    <t>VUEFA3</t>
+  </si>
+  <si>
+    <t>Fehér Sándor Simon</t>
+  </si>
+  <si>
+    <t>JE17YA</t>
+  </si>
+  <si>
+    <t>Fekete Domán Csaba</t>
+  </si>
+  <si>
+    <t>OQ8YTR</t>
+  </si>
+  <si>
+    <t>Ferenczi Benjámin Brúnó</t>
+  </si>
+  <si>
+    <t>KI4TGB</t>
+  </si>
+  <si>
+    <t>Kántor Kamilla</t>
+  </si>
+  <si>
+    <t>ZHHD8M</t>
+  </si>
+  <si>
+    <t>Katona Zoltán</t>
+  </si>
+  <si>
+    <t>YBXJWC</t>
+  </si>
+  <si>
+    <t>Kemecsei Márk</t>
+  </si>
+  <si>
+    <t>K8SU9L</t>
+  </si>
+  <si>
+    <t>Kondor Kristóf</t>
+  </si>
+  <si>
+    <t>DA8QGX</t>
+  </si>
+  <si>
+    <t>Kovács Gábor</t>
+  </si>
+  <si>
+    <t>YBB0ZZ</t>
+  </si>
+  <si>
+    <t>Magyar Zsófia</t>
+  </si>
+  <si>
+    <t>H2FYYJ</t>
+  </si>
+  <si>
+    <t>Mikula Martin</t>
+  </si>
+  <si>
+    <t>BHO1LO</t>
+  </si>
+  <si>
+    <t>Molnár Bálint</t>
+  </si>
+  <si>
+    <t>JH9VOL</t>
+  </si>
+  <si>
+    <t>Ónodi Dávid</t>
+  </si>
+  <si>
+    <t>VWYH7P</t>
+  </si>
+  <si>
+    <t>Pataki Dávid Ferenc</t>
+  </si>
+  <si>
+    <t>JDS8WG</t>
+  </si>
+  <si>
+    <t>Simion Ádám</t>
+  </si>
+  <si>
+    <t>TBAN04</t>
+  </si>
+  <si>
+    <t>Somogyi Boglárka</t>
+  </si>
+  <si>
+    <t>W99JOO</t>
+  </si>
+  <si>
+    <t>Szabo Zsombor</t>
+  </si>
+  <si>
+    <t>Tóth Ádám</t>
+  </si>
+  <si>
+    <t>Viski Máté Árpád</t>
+  </si>
+  <si>
+    <t>VJEIVS</t>
+  </si>
+  <si>
+    <t>C8TG5R</t>
+  </si>
+  <si>
+    <t>B59SN2</t>
+  </si>
+  <si>
     <t>BEVEZETÉS A TERMÉSZETES NYELVŰ SZÖVEGFELOLGOZÁSBA
-JELENLÉTI</t>
-  </si>
-  <si>
-    <t>2024.09.12</t>
-  </si>
-  <si>
-    <t>2024.09.19</t>
-  </si>
-  <si>
-    <t>2023.09.26</t>
-  </si>
-  <si>
-    <t>2024.10.03</t>
-  </si>
-  <si>
-    <t>2024.10.10</t>
-  </si>
-  <si>
-    <t>2024.10.17</t>
-  </si>
-  <si>
-    <t>2024.10.31</t>
-  </si>
-  <si>
-    <t>2024.11.07</t>
-  </si>
-  <si>
-    <t>2024.11.14</t>
-  </si>
-  <si>
-    <t>2024.11.21</t>
-  </si>
-  <si>
-    <t>2024.11.28</t>
-  </si>
-  <si>
-    <t>2024.12.12</t>
-  </si>
-  <si>
-    <t>2024.12.05</t>
-  </si>
-  <si>
-    <t>Baksay Csanád Bátor</t>
-  </si>
-  <si>
-    <t>B6CZ5S</t>
-  </si>
-  <si>
-    <t>Balogh András</t>
-  </si>
-  <si>
-    <t>C2RUJH</t>
-  </si>
-  <si>
-    <t>Balogh Levente</t>
-  </si>
-  <si>
-    <t>EGXYOP</t>
-  </si>
-  <si>
-    <t>Csendes Dávid</t>
-  </si>
-  <si>
-    <t>C59W4X</t>
-  </si>
-  <si>
-    <t>Erdős Csaba</t>
-  </si>
-  <si>
-    <t>VUEFA3</t>
-  </si>
-  <si>
-    <t>Fehér Sándor Simon</t>
-  </si>
-  <si>
-    <t>JE17YA</t>
-  </si>
-  <si>
-    <t>Fekete Domán Csaba</t>
-  </si>
-  <si>
-    <t>OQ8YTR</t>
-  </si>
-  <si>
-    <t>Ferenczi Benjámin Brúnó</t>
-  </si>
-  <si>
-    <t>KI4TGB</t>
-  </si>
-  <si>
-    <t>Kántor Kamilla</t>
-  </si>
-  <si>
-    <t>ZHHD8M</t>
-  </si>
-  <si>
-    <t>Katona Zoltán</t>
-  </si>
-  <si>
-    <t>YBXJWC</t>
-  </si>
-  <si>
-    <t>Kemecsei Márk</t>
-  </si>
-  <si>
-    <t>K8SU9L</t>
-  </si>
-  <si>
-    <t>Kondor Kristóf</t>
-  </si>
-  <si>
-    <t>DA8QGX</t>
-  </si>
-  <si>
-    <t>Kovács Gábor</t>
-  </si>
-  <si>
-    <t>YBB0ZZ</t>
-  </si>
-  <si>
-    <t>Magyar Zsófia</t>
-  </si>
-  <si>
-    <t>H2FYYJ</t>
-  </si>
-  <si>
-    <t>Mikula Martin</t>
-  </si>
-  <si>
-    <t>BHO1LO</t>
-  </si>
-  <si>
-    <t>Molnár Bálint</t>
-  </si>
-  <si>
-    <t>JH9VOL</t>
-  </si>
-  <si>
-    <t>Ónodi Dávid</t>
-  </si>
-  <si>
-    <t>VWYH7P</t>
-  </si>
-  <si>
-    <t>Pataki Dávid Ferenc</t>
-  </si>
-  <si>
-    <t>JDS8WG</t>
-  </si>
-  <si>
-    <t>Simion Ádám</t>
-  </si>
-  <si>
-    <t>TBAN04</t>
-  </si>
-  <si>
-    <t>Somogyi Boglárka</t>
-  </si>
-  <si>
-    <t>W99JOO</t>
-  </si>
-  <si>
-    <t>Szabo Zsombor</t>
-  </si>
-  <si>
-    <t>Tóth Ádám</t>
-  </si>
-  <si>
-    <t>Viski Máté Árpád</t>
-  </si>
-  <si>
-    <t>VJEIVS</t>
-  </si>
-  <si>
-    <t>C8TG5R</t>
-  </si>
-  <si>
-    <t>B59SN2</t>
+JELENLÉTI - 1416</t>
   </si>
 </sst>
 </file>
@@ -835,8 +835,8 @@
   </sheetPr>
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -852,7 +852,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
-        <v>10</v>
+        <v>69</v>
       </c>
       <c r="B1" s="15"/>
       <c r="C1" s="15"/>
@@ -880,7 +880,7 @@
     </row>
     <row r="3" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B3" s="6"/>
       <c r="C3" s="5"/>
@@ -894,7 +894,7 @@
     </row>
     <row r="4" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="5"/>
@@ -908,7 +908,7 @@
     </row>
     <row r="5" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="5"/>
@@ -922,7 +922,7 @@
     </row>
     <row r="6" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B6" s="6"/>
       <c r="C6" s="5"/>
@@ -936,7 +936,7 @@
     </row>
     <row r="7" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B7" s="6"/>
       <c r="C7" s="5"/>
@@ -950,7 +950,7 @@
     </row>
     <row r="8" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B8" s="6"/>
       <c r="C8" s="5"/>
@@ -959,12 +959,12 @@
       <c r="F8" s="6"/>
       <c r="G8" s="9">
         <f>VLOOKUP(A8,Táblázat3[],15)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B9" s="6"/>
       <c r="C9" s="5"/>
@@ -978,7 +978,7 @@
     </row>
     <row r="10" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="5"/>
@@ -992,7 +992,7 @@
     </row>
     <row r="11" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B11" s="6"/>
       <c r="C11" s="5"/>
@@ -1001,12 +1001,12 @@
       <c r="F11" s="6"/>
       <c r="G11" s="9">
         <f>VLOOKUP(A11,Táblázat3[],15)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B12" s="6"/>
       <c r="C12" s="5"/>
@@ -1020,7 +1020,7 @@
     </row>
     <row r="13" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B13" s="6"/>
       <c r="C13" s="5"/>
@@ -1034,7 +1034,7 @@
     </row>
     <row r="14" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B14" s="6"/>
       <c r="C14" s="5"/>
@@ -1048,7 +1048,7 @@
     </row>
     <row r="15" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B15" s="6"/>
       <c r="C15" s="5"/>
@@ -1062,7 +1062,7 @@
     </row>
     <row r="16" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B16" s="6"/>
       <c r="C16" s="5"/>
@@ -1076,7 +1076,7 @@
     </row>
     <row r="17" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B17" s="6"/>
       <c r="C17" s="5"/>
@@ -1085,12 +1085,12 @@
       <c r="F17" s="6"/>
       <c r="G17" s="9">
         <f>VLOOKUP(A17,Táblázat3[],15)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B18" s="6"/>
       <c r="C18" s="5"/>
@@ -1104,7 +1104,7 @@
     </row>
     <row r="19" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B19" s="6"/>
       <c r="C19" s="5"/>
@@ -1113,12 +1113,12 @@
       <c r="F19" s="6"/>
       <c r="G19" s="9">
         <f>VLOOKUP(A19,Táblázat3[],15)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B20" s="6"/>
       <c r="C20" s="5"/>
@@ -1132,7 +1132,7 @@
     </row>
     <row r="21" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B21" s="6"/>
       <c r="C21" s="5"/>
@@ -1146,7 +1146,7 @@
     </row>
     <row r="22" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B22" s="6"/>
       <c r="C22" s="5"/>
@@ -1160,7 +1160,7 @@
     </row>
     <row r="23" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B23" s="6"/>
       <c r="C23" s="5"/>
@@ -1174,7 +1174,7 @@
     </row>
     <row r="24" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B24" s="6"/>
       <c r="C24" s="5"/>
@@ -1188,7 +1188,7 @@
     </row>
     <row r="25" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B25" s="6"/>
       <c r="C25" s="5"/>
@@ -1209,7 +1209,7 @@
       <c r="D26" s="11"/>
       <c r="E26" s="16">
         <f ca="1">NOW()</f>
-        <v>45575.532350000001</v>
+        <v>45599.438926157411</v>
       </c>
       <c r="F26" s="16"/>
       <c r="G26" s="16"/>
@@ -1264,11 +1264,11 @@
   </sheetPr>
   <dimension ref="A1:Q26"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E19" sqref="E19"/>
+      <selection pane="bottomRight" activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1282,7 +1282,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="19">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="B1" s="19"/>
       <c r="C1" s="19"/>
@@ -1305,43 +1305,43 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="M2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="N2" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>22</v>
       </c>
       <c r="O2" s="2" t="s">
         <v>4</v>
@@ -1352,7 +1352,7 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -1398,13 +1398,13 @@
         <v>2</v>
       </c>
       <c r="P3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Q3" s="1"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -1450,13 +1450,13 @@
         <v>1</v>
       </c>
       <c r="P4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Q4" s="1"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1502,13 +1502,13 @@
         <v>0</v>
       </c>
       <c r="P5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="1"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1554,13 +1554,13 @@
         <v>2</v>
       </c>
       <c r="P6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="1"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -1606,13 +1606,13 @@
         <v>0</v>
       </c>
       <c r="P7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q7" s="1"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -1633,7 +1633,7 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -1655,16 +1655,16 @@
       </c>
       <c r="O8">
         <f>SUM(Táblázat3[[#This Row],[2024.09.12]:[2024.12.12]])</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q8" s="1"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -1710,13 +1710,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q9" s="1"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -1762,13 +1762,13 @@
         <v>0</v>
       </c>
       <c r="P10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q10" s="1"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -1789,7 +1789,7 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -1811,16 +1811,16 @@
       </c>
       <c r="O11">
         <f>SUM(Táblázat3[[#This Row],[2024.09.12]:[2024.12.12]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q11" s="1"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -1866,13 +1866,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="Q12" s="1"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -1918,13 +1918,13 @@
         <v>0</v>
       </c>
       <c r="P13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Q13" s="1"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -1970,13 +1970,13 @@
         <v>0</v>
       </c>
       <c r="P14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q14" s="1"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -2022,13 +2022,13 @@
         <v>1</v>
       </c>
       <c r="P15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Q15" s="1"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -2074,13 +2074,13 @@
         <v>1</v>
       </c>
       <c r="P16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Q16" s="1"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -2101,7 +2101,7 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -2123,16 +2123,16 @@
       </c>
       <c r="O17">
         <f>SUM(Táblázat3[[#This Row],[2024.09.12]:[2024.12.12]])</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q17" s="1"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -2178,13 +2178,13 @@
         <v>1</v>
       </c>
       <c r="P18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q18" s="1"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -2227,16 +2227,16 @@
       </c>
       <c r="O19">
         <f>SUM(Táblázat3[[#This Row],[2024.09.12]:[2024.12.12]])</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Q19" s="1"/>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -2282,13 +2282,13 @@
         <v>1</v>
       </c>
       <c r="P20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Q20" s="1"/>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -2334,13 +2334,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Q21" s="1"/>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -2386,13 +2386,13 @@
         <v>0</v>
       </c>
       <c r="P22" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="Q22" s="1"/>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -2438,13 +2438,13 @@
         <v>0</v>
       </c>
       <c r="P23" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="Q23" s="1"/>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -2490,13 +2490,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Q24" s="1"/>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -2542,7 +2542,7 @@
         <v>0</v>
       </c>
       <c r="P25" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="Q25" s="1"/>
     </row>
@@ -2576,7 +2576,7 @@
       </c>
       <c r="H26">
         <f>SUM(Táblázat3[2024.10.31])</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I26">
         <f>SUM(Táblázat3[2024.11.07])</f>
@@ -2604,7 +2604,7 @@
       </c>
       <c r="O26">
         <f>SUM(Táblázat3[HIÁNYZÁS])</f>
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/materials/NLP-I/jelenlet/jelenlet_2024_cs1416.xlsx
+++ b/materials/NLP-I/jelenlet/jelenlet_2024_cs1416.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\opell\Projects\me\materials\NLP-I\jelenlet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5198CCB0-456B-4F94-A513-6508772D892F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A29336B-E592-4EFC-8E1F-9AC19C07D39C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="5235" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{07C5D06A-6ABB-4BE7-9F60-12023554FC87}"/>
   </bookViews>
@@ -917,7 +917,7 @@
       <c r="F5" s="6"/>
       <c r="G5" s="9">
         <f>VLOOKUP(A5,Táblázat3[],15)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -987,7 +987,7 @@
       <c r="F10" s="6"/>
       <c r="G10" s="9">
         <f>VLOOKUP(A10,Táblázat3[],15)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1155,7 +1155,7 @@
       <c r="F22" s="6"/>
       <c r="G22" s="9">
         <f>VLOOKUP(A22,Táblázat3[],15)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1169,7 +1169,7 @@
       <c r="F23" s="6"/>
       <c r="G23" s="9">
         <f>VLOOKUP(A23,Táblázat3[],15)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1209,7 +1209,7 @@
       <c r="D26" s="11"/>
       <c r="E26" s="16">
         <f ca="1">NOW()</f>
-        <v>45599.438926157411</v>
+        <v>45607.492525231479</v>
       </c>
       <c r="F26" s="16"/>
       <c r="G26" s="16"/>
@@ -1268,7 +1268,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H20" sqref="H20"/>
+      <selection pane="bottomRight" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1480,7 +1480,7 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -1499,7 +1499,7 @@
       </c>
       <c r="O5">
         <f>SUM(Táblázat3[[#This Row],[2024.09.12]:[2024.12.12]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P5" t="s">
         <v>28</v>
@@ -1740,7 +1740,7 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -1759,7 +1759,7 @@
       </c>
       <c r="O10">
         <f>SUM(Táblázat3[[#This Row],[2024.09.12]:[2024.12.12]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P10" t="s">
         <v>38</v>
@@ -2364,7 +2364,7 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -2383,7 +2383,7 @@
       </c>
       <c r="O22">
         <f>SUM(Táblázat3[[#This Row],[2024.09.12]:[2024.12.12]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P22" t="s">
         <v>62</v>
@@ -2416,7 +2416,7 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -2435,7 +2435,7 @@
       </c>
       <c r="O23">
         <f>SUM(Táblázat3[[#This Row],[2024.09.12]:[2024.12.12]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P23" t="s">
         <v>66</v>
@@ -2580,7 +2580,7 @@
       </c>
       <c r="I26">
         <f>SUM(Táblázat3[2024.11.07])</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J26">
         <f>SUM(Táblázat3[2024.11.14])</f>
@@ -2604,7 +2604,7 @@
       </c>
       <c r="O26">
         <f>SUM(Táblázat3[HIÁNYZÁS])</f>
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/materials/NLP-I/jelenlet/jelenlet_2024_cs1416.xlsx
+++ b/materials/NLP-I/jelenlet/jelenlet_2024_cs1416.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\opell\Projects\me\materials\NLP-I\jelenlet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A29336B-E592-4EFC-8E1F-9AC19C07D39C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E09DCB5D-AD42-4760-BE8D-968964FFC347}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="5235" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{07C5D06A-6ABB-4BE7-9F60-12023554FC87}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{07C5D06A-6ABB-4BE7-9F60-12023554FC87}"/>
   </bookViews>
   <sheets>
     <sheet name="Aláíró" sheetId="5" r:id="rId1"/>
@@ -889,7 +889,7 @@
       <c r="F3" s="6"/>
       <c r="G3" s="9">
         <f>VLOOKUP(A3,Táblázat3[],15)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -945,7 +945,7 @@
       <c r="F7" s="6"/>
       <c r="G7" s="9">
         <f>VLOOKUP(A7,Táblázat3[],15)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1001,7 +1001,7 @@
       <c r="F11" s="6"/>
       <c r="G11" s="9">
         <f>VLOOKUP(A11,Táblázat3[],15)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1057,7 +1057,7 @@
       <c r="F15" s="6"/>
       <c r="G15" s="9">
         <f>VLOOKUP(A15,Táblázat3[],15)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1197,7 +1197,7 @@
       <c r="F25" s="6"/>
       <c r="G25" s="9">
         <f>VLOOKUP(A25,Táblázat3[],15)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1209,7 +1209,7 @@
       <c r="D26" s="11"/>
       <c r="E26" s="16">
         <f ca="1">NOW()</f>
-        <v>45607.492525231479</v>
+        <v>45614.413855208331</v>
       </c>
       <c r="F26" s="16"/>
       <c r="G26" s="16"/>
@@ -1268,7 +1268,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1379,7 +1379,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -1395,7 +1395,7 @@
       </c>
       <c r="O3">
         <f>SUM(Táblázat3[[#This Row],[2024.09.12]:[2024.12.12]])</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P3" t="s">
         <v>24</v>
@@ -1587,7 +1587,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -1603,7 +1603,7 @@
       </c>
       <c r="O7">
         <f>SUM(Táblázat3[[#This Row],[2024.09.12]:[2024.12.12]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P7" t="s">
         <v>32</v>
@@ -1795,7 +1795,7 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -1811,7 +1811,7 @@
       </c>
       <c r="O11">
         <f>SUM(Táblázat3[[#This Row],[2024.09.12]:[2024.12.12]])</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P11" t="s">
         <v>40</v>
@@ -2003,7 +2003,7 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -2019,7 +2019,7 @@
       </c>
       <c r="O15">
         <f>SUM(Táblázat3[[#This Row],[2024.09.12]:[2024.12.12]])</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P15" t="s">
         <v>48</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -2539,7 +2539,7 @@
       </c>
       <c r="O25">
         <f>SUM(Táblázat3[[#This Row],[2024.09.12]:[2024.12.12]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P25" t="s">
         <v>68</v>
@@ -2584,7 +2584,7 @@
       </c>
       <c r="J26">
         <f>SUM(Táblázat3[2024.11.14])</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K26">
         <f>SUM(Táblázat3[2024.11.21])</f>
@@ -2604,7 +2604,7 @@
       </c>
       <c r="O26">
         <f>SUM(Táblázat3[HIÁNYZÁS])</f>
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/materials/NLP-I/jelenlet/jelenlet_2024_cs1416.xlsx
+++ b/materials/NLP-I/jelenlet/jelenlet_2024_cs1416.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\opell\Projects\me\materials\NLP-I\jelenlet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E09DCB5D-AD42-4760-BE8D-968964FFC347}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B96AB8D3-35C2-49CF-9ADF-0F70BB480BAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{07C5D06A-6ABB-4BE7-9F60-12023554FC87}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{07C5D06A-6ABB-4BE7-9F60-12023554FC87}"/>
   </bookViews>
   <sheets>
     <sheet name="Aláíró" sheetId="5" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="71">
   <si>
     <t>Név</t>
   </si>
@@ -246,6 +246,9 @@
   <si>
     <t>BEVEZETÉS A TERMÉSZETES NYELVŰ SZÖVEGFELOLGOZÁSBA
 JELENLÉTI - 1416</t>
+  </si>
+  <si>
+    <t>Mark</t>
   </si>
 </sst>
 </file>
@@ -430,7 +433,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="5">
     <dxf>
       <font>
         <b/>
@@ -449,6 +452,9 @@
         <charset val="238"/>
         <scheme val="minor"/>
       </font>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -477,13 +483,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{05EC0C74-DD78-463D-AF64-866E115FCBD2}" name="Táblázat3" displayName="Táblázat3" ref="A2:P26" totalsRowCount="1" headerRowDxfId="3">
-  <autoFilter ref="A2:P25" xr:uid="{05EC0C74-DD78-463D-AF64-866E115FCBD2}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{05EC0C74-DD78-463D-AF64-866E115FCBD2}" name="Táblázat3" displayName="Táblázat3" ref="A2:Q26" totalsRowCount="1" headerRowDxfId="4">
+  <autoFilter ref="A2:Q25" xr:uid="{05EC0C74-DD78-463D-AF64-866E115FCBD2}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:P25">
     <sortCondition ref="A3:A25"/>
   </sortState>
-  <tableColumns count="16">
-    <tableColumn id="1" xr3:uid="{AC4A2E64-5B3A-4A78-8887-FB0803873F74}" name="Név" totalsRowLabel="CHEKSUM" dataDxfId="2" totalsRowDxfId="0"/>
+  <tableColumns count="17">
+    <tableColumn id="1" xr3:uid="{AC4A2E64-5B3A-4A78-8887-FB0803873F74}" name="Név" totalsRowLabel="CHEKSUM" dataDxfId="3" totalsRowDxfId="0"/>
     <tableColumn id="2" xr3:uid="{81CB4C41-FCE0-45F1-8D24-A54F241D9EBF}" name="2024.09.12" totalsRowFunction="custom">
       <totalsRowFormula>SUM(Táblázat3[2024.09.12])</totalsRowFormula>
     </tableColumn>
@@ -523,11 +529,12 @@
     <tableColumn id="14" xr3:uid="{B988FA89-1E4E-4372-AD4F-C4E869C0989B}" name="2024.12.12" totalsRowFunction="custom">
       <totalsRowFormula>SUM(Táblázat3[2024.12.12])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="19" xr3:uid="{4DFFAA07-C216-428D-BFF6-4165AD3A414A}" name="HIÁNYZÁS" totalsRowFunction="custom" dataDxfId="1">
+    <tableColumn id="19" xr3:uid="{4DFFAA07-C216-428D-BFF6-4165AD3A414A}" name="HIÁNYZÁS" totalsRowFunction="custom" dataDxfId="2">
       <calculatedColumnFormula>SUM(Táblázat3[[#This Row],[2024.09.12]:[2024.12.12]])</calculatedColumnFormula>
       <totalsRowFormula>SUM(Táblázat3[HIÁNYZÁS])</totalsRowFormula>
     </tableColumn>
     <tableColumn id="21" xr3:uid="{99355BC7-039B-4FC4-9826-FB67580683F4}" name="NK"/>
+    <tableColumn id="15" xr3:uid="{1099E380-9253-45DB-B0BC-11EEE3C5DEDA}" name="Mark" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -835,8 +842,8 @@
   </sheetPr>
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:G1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -917,7 +924,7 @@
       <c r="F5" s="6"/>
       <c r="G5" s="9">
         <f>VLOOKUP(A5,Táblázat3[],15)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1001,7 +1008,7 @@
       <c r="F11" s="6"/>
       <c r="G11" s="9">
         <f>VLOOKUP(A11,Táblázat3[],15)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1085,7 +1092,7 @@
       <c r="F17" s="6"/>
       <c r="G17" s="9">
         <f>VLOOKUP(A17,Táblázat3[],15)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1169,7 +1176,7 @@
       <c r="F23" s="6"/>
       <c r="G23" s="9">
         <f>VLOOKUP(A23,Táblázat3[],15)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1209,7 +1216,7 @@
       <c r="D26" s="11"/>
       <c r="E26" s="16">
         <f ca="1">NOW()</f>
-        <v>45614.413855208331</v>
+        <v>45620.362682291663</v>
       </c>
       <c r="F26" s="16"/>
       <c r="G26" s="16"/>
@@ -1264,11 +1271,11 @@
   </sheetPr>
   <dimension ref="A1:Q26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J25" sqref="J25"/>
+      <selection pane="bottomRight" activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1278,6 +1285,7 @@
     <col min="7" max="7" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="14" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -1299,6 +1307,7 @@
       <c r="N1" s="19"/>
       <c r="O1" s="19"/>
       <c r="P1" s="19"/>
+      <c r="Q1" s="19"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -1348,6 +1357,9 @@
       </c>
       <c r="P2" s="4" t="s">
         <v>6</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
@@ -1486,7 +1498,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -1499,7 +1511,7 @@
       </c>
       <c r="O5">
         <f>SUM(Táblázat3[[#This Row],[2024.09.12]:[2024.12.12]])</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P5" t="s">
         <v>28</v>
@@ -1798,7 +1810,7 @@
         <v>1</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -1811,7 +1823,7 @@
       </c>
       <c r="O11">
         <f>SUM(Táblázat3[[#This Row],[2024.09.12]:[2024.12.12]])</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P11" t="s">
         <v>40</v>
@@ -2110,7 +2122,7 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -2123,7 +2135,7 @@
       </c>
       <c r="O17">
         <f>SUM(Táblázat3[[#This Row],[2024.09.12]:[2024.12.12]])</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P17" t="s">
         <v>52</v>
@@ -2422,7 +2434,7 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -2435,7 +2447,7 @@
       </c>
       <c r="O23">
         <f>SUM(Táblázat3[[#This Row],[2024.09.12]:[2024.12.12]])</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P23" t="s">
         <v>66</v>
@@ -2588,7 +2600,7 @@
       </c>
       <c r="K26">
         <f>SUM(Táblázat3[2024.11.21])</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L26">
         <f>SUM(Táblázat3[2024.11.28])</f>
@@ -2604,12 +2616,12 @@
       </c>
       <c r="O26">
         <f>SUM(Táblázat3[HIÁNYZÁS])</f>
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="A1:Q1"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/materials/NLP-I/jelenlet/jelenlet_2024_cs1416.xlsx
+++ b/materials/NLP-I/jelenlet/jelenlet_2024_cs1416.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\opell\Projects\me\materials\NLP-I\jelenlet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B96AB8D3-35C2-49CF-9ADF-0F70BB480BAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{434A32DF-5322-4994-8A8A-A878AD0D1B1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{07C5D06A-6ABB-4BE7-9F60-12023554FC87}"/>
+    <workbookView xWindow="-28920" yWindow="5235" windowWidth="29040" windowHeight="15720" xr2:uid="{07C5D06A-6ABB-4BE7-9F60-12023554FC87}"/>
   </bookViews>
   <sheets>
     <sheet name="Aláíró" sheetId="5" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="73">
   <si>
     <t>Név</t>
   </si>
@@ -249,6 +249,12 @@
   </si>
   <si>
     <t>Mark</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>Best</t>
   </si>
 </sst>
 </file>
@@ -376,7 +382,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -427,6 +433,9 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -483,12 +492,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{05EC0C74-DD78-463D-AF64-866E115FCBD2}" name="Táblázat3" displayName="Táblázat3" ref="A2:Q26" totalsRowCount="1" headerRowDxfId="4">
-  <autoFilter ref="A2:Q25" xr:uid="{05EC0C74-DD78-463D-AF64-866E115FCBD2}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{05EC0C74-DD78-463D-AF64-866E115FCBD2}" name="Táblázat3" displayName="Táblázat3" ref="A2:R26" totalsRowCount="1" headerRowDxfId="4">
+  <autoFilter ref="A2:R25" xr:uid="{05EC0C74-DD78-463D-AF64-866E115FCBD2}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:P25">
     <sortCondition ref="A3:A25"/>
   </sortState>
-  <tableColumns count="17">
+  <tableColumns count="18">
     <tableColumn id="1" xr3:uid="{AC4A2E64-5B3A-4A78-8887-FB0803873F74}" name="Név" totalsRowLabel="CHEKSUM" dataDxfId="3" totalsRowDxfId="0"/>
     <tableColumn id="2" xr3:uid="{81CB4C41-FCE0-45F1-8D24-A54F241D9EBF}" name="2024.09.12" totalsRowFunction="custom">
       <totalsRowFormula>SUM(Táblázat3[2024.09.12])</totalsRowFormula>
@@ -535,6 +544,7 @@
     </tableColumn>
     <tableColumn id="21" xr3:uid="{99355BC7-039B-4FC4-9826-FB67580683F4}" name="NK"/>
     <tableColumn id="15" xr3:uid="{1099E380-9253-45DB-B0BC-11EEE3C5DEDA}" name="Mark" dataDxfId="1"/>
+    <tableColumn id="16" xr3:uid="{D5E77D3F-AD26-4BDE-B987-80100AE5E891}" name="Best"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1216,7 +1226,7 @@
       <c r="D26" s="11"/>
       <c r="E26" s="16">
         <f ca="1">NOW()</f>
-        <v>45620.362682291663</v>
+        <v>45624.480575000001</v>
       </c>
       <c r="F26" s="16"/>
       <c r="G26" s="16"/>
@@ -1269,13 +1279,13 @@
   <sheetPr>
     <tabColor theme="9" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:Q26"/>
+  <dimension ref="A1:R26"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K15" sqref="K15"/>
+      <selection pane="bottomRight" activeCell="N28" sqref="N28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1288,7 +1298,7 @@
     <col min="17" max="17" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="19">
         <v>2024</v>
       </c>
@@ -1308,8 +1318,9 @@
       <c r="O1" s="19"/>
       <c r="P1" s="19"/>
       <c r="Q1" s="19"/>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R1" s="19"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1361,8 +1372,11 @@
       <c r="Q2" s="4" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R2" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>23</v>
       </c>
@@ -1414,7 +1428,7 @@
       </c>
       <c r="Q3" s="1"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>25</v>
       </c>
@@ -1464,9 +1478,14 @@
       <c r="P4" t="s">
         <v>26</v>
       </c>
-      <c r="Q4" s="1"/>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q4" s="1">
+        <v>5</v>
+      </c>
+      <c r="R4" s="20" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>27</v>
       </c>
@@ -1518,7 +1537,7 @@
       </c>
       <c r="Q5" s="1"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -1570,7 +1589,7 @@
       </c>
       <c r="Q6" s="1"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>31</v>
       </c>
@@ -1622,7 +1641,7 @@
       </c>
       <c r="Q7" s="1"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>33</v>
       </c>
@@ -1674,7 +1693,7 @@
       </c>
       <c r="Q8" s="1"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>35</v>
       </c>
@@ -1726,7 +1745,7 @@
       </c>
       <c r="Q9" s="1"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>37</v>
       </c>
@@ -1778,7 +1797,7 @@
       </c>
       <c r="Q10" s="1"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>39</v>
       </c>
@@ -1830,7 +1849,7 @@
       </c>
       <c r="Q11" s="1"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>41</v>
       </c>
@@ -1882,7 +1901,7 @@
       </c>
       <c r="Q12" s="1"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>43</v>
       </c>
@@ -1934,7 +1953,7 @@
       </c>
       <c r="Q13" s="1"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>45</v>
       </c>
@@ -1986,7 +2005,7 @@
       </c>
       <c r="Q14" s="1"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>47</v>
       </c>
@@ -2038,7 +2057,7 @@
       </c>
       <c r="Q15" s="1"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>49</v>
       </c>
@@ -2621,7 +2640,7 @@
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:Q1"/>
+    <mergeCell ref="A1:R1"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/materials/NLP-I/jelenlet/jelenlet_2024_cs1416.xlsx
+++ b/materials/NLP-I/jelenlet/jelenlet_2024_cs1416.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\opell\Projects\me\materials\NLP-I\jelenlet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{434A32DF-5322-4994-8A8A-A878AD0D1B1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C26D6FF-2642-4E83-8813-EE1FD1AC9F59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="5235" windowWidth="29040" windowHeight="15720" xr2:uid="{07C5D06A-6ABB-4BE7-9F60-12023554FC87}"/>
+    <workbookView xWindow="-28920" yWindow="5235" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{07C5D06A-6ABB-4BE7-9F60-12023554FC87}"/>
   </bookViews>
   <sheets>
     <sheet name="Aláíró" sheetId="5" r:id="rId1"/>
@@ -420,6 +420,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -433,9 +436,6 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -852,7 +852,7 @@
   </sheetPr>
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
@@ -868,15 +868,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
     </row>
     <row r="2" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
@@ -934,7 +934,7 @@
       <c r="F5" s="6"/>
       <c r="G5" s="9">
         <f>VLOOKUP(A5,Táblázat3[],15)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -990,7 +990,7 @@
       <c r="F9" s="6"/>
       <c r="G9" s="9">
         <f>VLOOKUP(A9,Táblázat3[],15)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1046,7 +1046,7 @@
       <c r="F13" s="6"/>
       <c r="G13" s="9">
         <f>VLOOKUP(A13,Táblázat3[],15)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1074,7 +1074,7 @@
       <c r="F15" s="6"/>
       <c r="G15" s="9">
         <f>VLOOKUP(A15,Táblázat3[],15)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1088,7 +1088,7 @@
       <c r="F16" s="6"/>
       <c r="G16" s="9">
         <f>VLOOKUP(A16,Táblázat3[],15)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1130,7 +1130,7 @@
       <c r="F19" s="6"/>
       <c r="G19" s="9">
         <f>VLOOKUP(A19,Táblázat3[],15)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1186,7 +1186,7 @@
       <c r="F23" s="6"/>
       <c r="G23" s="9">
         <f>VLOOKUP(A23,Táblázat3[],15)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1200,7 +1200,7 @@
       <c r="F24" s="6"/>
       <c r="G24" s="9">
         <f>VLOOKUP(A24,Táblázat3[],15)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1224,12 +1224,12 @@
         <v>3</v>
       </c>
       <c r="D26" s="11"/>
-      <c r="E26" s="16">
+      <c r="E26" s="17">
         <f ca="1">NOW()</f>
-        <v>45624.480575000001</v>
-      </c>
-      <c r="F26" s="16"/>
-      <c r="G26" s="16"/>
+        <v>45625.559563078707</v>
+      </c>
+      <c r="F26" s="17"/>
+      <c r="G26" s="17"/>
     </row>
     <row r="27" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="11"/>
@@ -1247,20 +1247,20 @@
         <v>2</v>
       </c>
       <c r="D28" s="11"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="17"/>
-      <c r="G28" s="17"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="18"/>
     </row>
     <row r="29" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="11"/>
       <c r="B29" s="11"/>
       <c r="C29" s="11"/>
       <c r="D29" s="11"/>
-      <c r="E29" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="F29" s="18"/>
-      <c r="G29" s="18"/>
+      <c r="E29" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="F29" s="19"/>
+      <c r="G29" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1281,11 +1281,11 @@
   </sheetPr>
   <dimension ref="A1:R26"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N28" sqref="N28"/>
+      <selection pane="bottomRight" activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1299,26 +1299,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" s="19">
+      <c r="A1" s="20">
         <v>2024</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="19"/>
-      <c r="O1" s="19"/>
-      <c r="P1" s="19"/>
-      <c r="Q1" s="19"/>
-      <c r="R1" s="19"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="20"/>
+      <c r="O1" s="20"/>
+      <c r="P1" s="20"/>
+      <c r="Q1" s="20"/>
+      <c r="R1" s="20"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -1481,7 +1481,7 @@
       <c r="Q4" s="1">
         <v>5</v>
       </c>
-      <c r="R4" s="20" t="s">
+      <c r="R4" s="15" t="s">
         <v>71</v>
       </c>
     </row>
@@ -1520,7 +1520,7 @@
         <v>1</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -1530,7 +1530,7 @@
       </c>
       <c r="O5">
         <f>SUM(Táblázat3[[#This Row],[2024.09.12]:[2024.12.12]])</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P5" t="s">
         <v>28</v>
@@ -1728,7 +1728,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -1738,7 +1738,7 @@
       </c>
       <c r="O9">
         <f>SUM(Táblázat3[[#This Row],[2024.09.12]:[2024.12.12]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P9" t="s">
         <v>36</v>
@@ -1936,7 +1936,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -1946,7 +1946,7 @@
       </c>
       <c r="O13">
         <f>SUM(Táblázat3[[#This Row],[2024.09.12]:[2024.12.12]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P13" t="s">
         <v>44</v>
@@ -2040,7 +2040,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -2050,7 +2050,7 @@
       </c>
       <c r="O15">
         <f>SUM(Táblázat3[[#This Row],[2024.09.12]:[2024.12.12]])</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P15" t="s">
         <v>48</v>
@@ -2092,7 +2092,7 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -2102,7 +2102,7 @@
       </c>
       <c r="O16">
         <f>SUM(Táblázat3[[#This Row],[2024.09.12]:[2024.12.12]])</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P16" t="s">
         <v>50</v>
@@ -2248,7 +2248,7 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -2258,7 +2258,7 @@
       </c>
       <c r="O19">
         <f>SUM(Táblázat3[[#This Row],[2024.09.12]:[2024.12.12]])</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P19" t="s">
         <v>56</v>
@@ -2456,7 +2456,7 @@
         <v>1</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -2466,7 +2466,7 @@
       </c>
       <c r="O23">
         <f>SUM(Táblázat3[[#This Row],[2024.09.12]:[2024.12.12]])</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P23" t="s">
         <v>66</v>
@@ -2508,7 +2508,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -2518,7 +2518,7 @@
       </c>
       <c r="O24">
         <f>SUM(Táblázat3[[#This Row],[2024.09.12]:[2024.12.12]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P24" t="s">
         <v>67</v>
@@ -2623,7 +2623,7 @@
       </c>
       <c r="L26">
         <f>SUM(Táblázat3[2024.11.28])</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="M26">
         <f>SUM(Táblázat3[2024.12.05])</f>
@@ -2635,7 +2635,7 @@
       </c>
       <c r="O26">
         <f>SUM(Táblázat3[HIÁNYZÁS])</f>
-        <v>29</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/materials/NLP-I/jelenlet/jelenlet_2024_cs1416.xlsx
+++ b/materials/NLP-I/jelenlet/jelenlet_2024_cs1416.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\opell\Projects\me\materials\NLP-I\jelenlet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C26D6FF-2642-4E83-8813-EE1FD1AC9F59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C470513D-878D-4622-8D59-90C2E641E3B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="5235" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{07C5D06A-6ABB-4BE7-9F60-12023554FC87}"/>
   </bookViews>
   <sheets>
     <sheet name="Aláíró" sheetId="5" r:id="rId1"/>
     <sheet name="Számoló" sheetId="6" r:id="rId2"/>
+    <sheet name="Feladat" sheetId="7" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="97">
   <si>
     <t>Név</t>
   </si>
@@ -255,6 +256,78 @@
   </si>
   <si>
     <t>Best</t>
+  </si>
+  <si>
+    <t>Készíts egy programot, amely vár egy szöveget, és öt kategória közül választja ki a legmegfelelőbbet!</t>
+  </si>
+  <si>
+    <t>Készíts egy programot, amely kiegészít egy mondatot úgy, hogy 10 szót generál hozzá!</t>
+  </si>
+  <si>
+    <t>Készíts egy programot, amely felismeri a személyneveket egy szövegben!</t>
+  </si>
+  <si>
+    <t>Készíts egy programot, amely megmondja, hogy ki dolgozik a szövegben megadott helyen!</t>
+  </si>
+  <si>
+    <t>Készíts egy programot, amely egy hosszú szövegből egy rövid összefoglalót készít!</t>
+  </si>
+  <si>
+    <t>Készíts egy programot, amely két különböző fordítást ad egy szövegre!</t>
+  </si>
+  <si>
+    <t>Készíts egy programot, amely véletlenszerű szöveget generál egy kezdőmondat alapján!</t>
+  </si>
+  <si>
+    <t>Készíts egy programot, amely egy mondatban lévő maszkot kitölt, és megjeleníti a legjobb opciót!</t>
+  </si>
+  <si>
+    <t>Készíts egy programot, amely egy szöveget egyszerre összefoglal és fordít!</t>
+  </si>
+  <si>
+    <t>Készíts egy programot, amely egy hosszú szöveget összefoglal egy mondatban!</t>
+  </si>
+  <si>
+    <t>Készíts egy programot, amely egy mondat érzelmi töltetét és kategóriáját egyidejűleg meghatározza!</t>
+  </si>
+  <si>
+    <t>Készíts egy programot, amely fordít egy szöveget, majd az érzelmi töltetét elemzi!</t>
+  </si>
+  <si>
+    <t>Készíts egy programot, amely egy mondatot több pipeline-on (érzelemelemzés, kategorizálás) is végrehajt!</t>
+  </si>
+  <si>
+    <t>Készíts egy programot, amely egy szövegben szereplő maszk helyére két különböző szót javasol!</t>
+  </si>
+  <si>
+    <t>Készíts egy programot, amely egy szöveg érzelmi töltetét elemezi és megjeleníti az eredményt grafikonon!</t>
+  </si>
+  <si>
+    <t>Készíts egy programot, amely a Zero-shot osztályozással kapott legjobb címkéket fájlba menti!</t>
+  </si>
+  <si>
+    <t>Készíts egy programot, amely egy szöveg érzelmi töltetét és összefoglalóját egyszerre adja vissza!</t>
+  </si>
+  <si>
+    <t>Készíts egy programot, amely egy szöveget lefordít, és az eredményt egy fájlba menti!</t>
+  </si>
+  <si>
+    <t>Készíts egy programot, amely egyszerre elemzi a szöveg érzelmi töltetét és kategóriáját!</t>
+  </si>
+  <si>
+    <t>Készíts egy programot, amely egy szöveget francia nyelvről három különböző nyelvre fordít!</t>
+  </si>
+  <si>
+    <t>Készíts egy programot, amely egy szöveget három nyelvre fordít (angol, német, spanyol), majd mindegyik fordítás érzelmi töltetét elemzi!</t>
+  </si>
+  <si>
+    <t>Készíts egy programot, amely összehasonlítja ugyanazon mondat érzelmi töltetét két különböző hőmérséklet (pl. 0.7 és 1.0) mellett generált szöveggel!</t>
+  </si>
+  <si>
+    <t>Készíts egy programot, amely egy mondatot először érzelemelemzéssel vizsgál, majd az eredményt nullás osztályozással tovább bontja alcímkékbe!</t>
+  </si>
+  <si>
+    <t>D</t>
   </si>
 </sst>
 </file>
@@ -442,7 +515,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="6">
     <dxf>
       <font>
         <b/>
@@ -461,6 +534,9 @@
         <charset val="238"/>
         <scheme val="minor"/>
       </font>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -492,13 +568,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{05EC0C74-DD78-463D-AF64-866E115FCBD2}" name="Táblázat3" displayName="Táblázat3" ref="A2:R26" totalsRowCount="1" headerRowDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{05EC0C74-DD78-463D-AF64-866E115FCBD2}" name="Táblázat3" displayName="Táblázat3" ref="A2:R26" totalsRowCount="1" headerRowDxfId="5">
   <autoFilter ref="A2:R25" xr:uid="{05EC0C74-DD78-463D-AF64-866E115FCBD2}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:P25">
     <sortCondition ref="A3:A25"/>
   </sortState>
   <tableColumns count="18">
-    <tableColumn id="1" xr3:uid="{AC4A2E64-5B3A-4A78-8887-FB0803873F74}" name="Név" totalsRowLabel="CHEKSUM" dataDxfId="3" totalsRowDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{AC4A2E64-5B3A-4A78-8887-FB0803873F74}" name="Név" totalsRowLabel="CHEKSUM" dataDxfId="4" totalsRowDxfId="0"/>
     <tableColumn id="2" xr3:uid="{81CB4C41-FCE0-45F1-8D24-A54F241D9EBF}" name="2024.09.12" totalsRowFunction="custom">
       <totalsRowFormula>SUM(Táblázat3[2024.09.12])</totalsRowFormula>
     </tableColumn>
@@ -538,13 +614,13 @@
     <tableColumn id="14" xr3:uid="{B988FA89-1E4E-4372-AD4F-C4E869C0989B}" name="2024.12.12" totalsRowFunction="custom">
       <totalsRowFormula>SUM(Táblázat3[2024.12.12])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="19" xr3:uid="{4DFFAA07-C216-428D-BFF6-4165AD3A414A}" name="HIÁNYZÁS" totalsRowFunction="custom" dataDxfId="2">
+    <tableColumn id="19" xr3:uid="{4DFFAA07-C216-428D-BFF6-4165AD3A414A}" name="HIÁNYZÁS" totalsRowFunction="custom" dataDxfId="3">
       <calculatedColumnFormula>SUM(Táblázat3[[#This Row],[2024.09.12]:[2024.12.12]])</calculatedColumnFormula>
       <totalsRowFormula>SUM(Táblázat3[HIÁNYZÁS])</totalsRowFormula>
     </tableColumn>
     <tableColumn id="21" xr3:uid="{99355BC7-039B-4FC4-9826-FB67580683F4}" name="NK"/>
-    <tableColumn id="15" xr3:uid="{1099E380-9253-45DB-B0BC-11EEE3C5DEDA}" name="Mark" dataDxfId="1"/>
-    <tableColumn id="16" xr3:uid="{D5E77D3F-AD26-4BDE-B987-80100AE5E891}" name="Best"/>
+    <tableColumn id="15" xr3:uid="{1099E380-9253-45DB-B0BC-11EEE3C5DEDA}" name="Mark" dataDxfId="2"/>
+    <tableColumn id="16" xr3:uid="{D5E77D3F-AD26-4BDE-B987-80100AE5E891}" name="Best" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -906,7 +982,7 @@
       <c r="F3" s="6"/>
       <c r="G3" s="9">
         <f>VLOOKUP(A3,Táblázat3[],15)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -920,7 +996,7 @@
       <c r="F4" s="6"/>
       <c r="G4" s="9">
         <f>VLOOKUP(A4,Táblázat3[],15)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -934,7 +1010,7 @@
       <c r="F5" s="6"/>
       <c r="G5" s="9">
         <f>VLOOKUP(A5,Táblázat3[],15)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -976,7 +1052,7 @@
       <c r="F8" s="6"/>
       <c r="G8" s="9">
         <f>VLOOKUP(A8,Táblázat3[],15)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -990,7 +1066,7 @@
       <c r="F9" s="6"/>
       <c r="G9" s="9">
         <f>VLOOKUP(A9,Táblázat3[],15)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1046,7 +1122,7 @@
       <c r="F13" s="6"/>
       <c r="G13" s="9">
         <f>VLOOKUP(A13,Táblázat3[],15)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1060,7 +1136,7 @@
       <c r="F14" s="6"/>
       <c r="G14" s="9">
         <f>VLOOKUP(A14,Táblázat3[],15)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1116,7 +1192,7 @@
       <c r="F18" s="6"/>
       <c r="G18" s="9">
         <f>VLOOKUP(A18,Táblázat3[],15)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1158,7 +1234,7 @@
       <c r="F21" s="6"/>
       <c r="G21" s="9">
         <f>VLOOKUP(A21,Táblázat3[],15)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1186,7 +1262,7 @@
       <c r="F23" s="6"/>
       <c r="G23" s="9">
         <f>VLOOKUP(A23,Táblázat3[],15)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1226,7 +1302,7 @@
       <c r="D26" s="11"/>
       <c r="E26" s="17">
         <f ca="1">NOW()</f>
-        <v>45625.559563078707</v>
+        <v>45647.554609837964</v>
       </c>
       <c r="F26" s="17"/>
       <c r="G26" s="17"/>
@@ -1285,7 +1361,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L24" sqref="L24"/>
+      <selection pane="bottomRight" activeCell="A22" sqref="A4:A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1414,19 +1490,22 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
         <f>SUM(Táblázat3[[#This Row],[2024.09.12]:[2024.12.12]])</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P3" t="s">
         <v>24</v>
       </c>
-      <c r="Q3" s="1"/>
+      <c r="Q3" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="R3" s="15"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1466,14 +1545,14 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
         <f>SUM(Táblázat3[[#This Row],[2024.09.12]:[2024.12.12]])</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P4" t="s">
         <v>26</v>
@@ -1523,19 +1602,22 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
         <f>SUM(Táblázat3[[#This Row],[2024.09.12]:[2024.12.12]])</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P5" t="s">
         <v>28</v>
       </c>
-      <c r="Q5" s="1"/>
+      <c r="Q5" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="R5" s="15"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -1587,7 +1669,10 @@
       <c r="P6" t="s">
         <v>30</v>
       </c>
-      <c r="Q6" s="1"/>
+      <c r="Q6" s="1">
+        <v>5</v>
+      </c>
+      <c r="R6" s="15"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -1639,7 +1724,10 @@
       <c r="P7" t="s">
         <v>32</v>
       </c>
-      <c r="Q7" s="1"/>
+      <c r="Q7" s="1">
+        <v>4</v>
+      </c>
+      <c r="R7" s="15"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -1679,19 +1767,22 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
         <f>SUM(Táblázat3[[#This Row],[2024.09.12]:[2024.12.12]])</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P8" t="s">
         <v>34</v>
       </c>
-      <c r="Q8" s="1"/>
+      <c r="Q8" s="1">
+        <v>4</v>
+      </c>
+      <c r="R8" s="15"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -1731,19 +1822,22 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
         <f>SUM(Táblázat3[[#This Row],[2024.09.12]:[2024.12.12]])</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P9" t="s">
         <v>36</v>
       </c>
-      <c r="Q9" s="1"/>
+      <c r="Q9" s="1">
+        <v>4</v>
+      </c>
+      <c r="R9" s="15"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -1795,7 +1889,12 @@
       <c r="P10" t="s">
         <v>38</v>
       </c>
-      <c r="Q10" s="1"/>
+      <c r="Q10" s="1">
+        <v>5</v>
+      </c>
+      <c r="R10" s="15" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -1847,7 +1946,12 @@
       <c r="P11" t="s">
         <v>40</v>
       </c>
-      <c r="Q11" s="1"/>
+      <c r="Q11" s="1">
+        <v>5</v>
+      </c>
+      <c r="R11" s="15" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -1899,7 +2003,10 @@
       <c r="P12" t="s">
         <v>42</v>
       </c>
-      <c r="Q12" s="1"/>
+      <c r="Q12" s="1">
+        <v>3</v>
+      </c>
+      <c r="R12" s="15"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -1939,19 +2046,22 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
         <f>SUM(Táblázat3[[#This Row],[2024.09.12]:[2024.12.12]])</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P13" t="s">
         <v>44</v>
       </c>
-      <c r="Q13" s="1"/>
+      <c r="Q13" s="1">
+        <v>4</v>
+      </c>
+      <c r="R13" s="15"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -1991,19 +2101,24 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
         <f>SUM(Táblázat3[[#This Row],[2024.09.12]:[2024.12.12]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P14" t="s">
         <v>46</v>
       </c>
-      <c r="Q14" s="1"/>
+      <c r="Q14" s="1">
+        <v>5</v>
+      </c>
+      <c r="R14" s="15" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -2055,7 +2170,10 @@
       <c r="P15" t="s">
         <v>48</v>
       </c>
-      <c r="Q15" s="1"/>
+      <c r="Q15" s="1">
+        <v>4</v>
+      </c>
+      <c r="R15" s="15"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -2107,9 +2225,14 @@
       <c r="P16" t="s">
         <v>50</v>
       </c>
-      <c r="Q16" s="1"/>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q16" s="1">
+        <v>5</v>
+      </c>
+      <c r="R16" s="15" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>51</v>
       </c>
@@ -2159,9 +2282,12 @@
       <c r="P17" t="s">
         <v>52</v>
       </c>
-      <c r="Q17" s="1"/>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q17" s="1">
+        <v>4</v>
+      </c>
+      <c r="R17" s="15"/>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>53</v>
       </c>
@@ -2199,21 +2325,24 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
         <f>SUM(Táblázat3[[#This Row],[2024.09.12]:[2024.12.12]])</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P18" t="s">
         <v>54</v>
       </c>
-      <c r="Q18" s="1"/>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q18" s="1">
+        <v>4</v>
+      </c>
+      <c r="R18" s="15"/>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>55</v>
       </c>
@@ -2263,9 +2392,12 @@
       <c r="P19" t="s">
         <v>56</v>
       </c>
-      <c r="Q19" s="1"/>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q19" s="1">
+        <v>4</v>
+      </c>
+      <c r="R19" s="15"/>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>57</v>
       </c>
@@ -2315,9 +2447,14 @@
       <c r="P20" t="s">
         <v>58</v>
       </c>
-      <c r="Q20" s="1"/>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q20" s="1">
+        <v>5</v>
+      </c>
+      <c r="R20" s="15" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>59</v>
       </c>
@@ -2355,21 +2492,24 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
         <f>SUM(Táblázat3[[#This Row],[2024.09.12]:[2024.12.12]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P21" t="s">
         <v>60</v>
       </c>
-      <c r="Q21" s="1"/>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q21" s="1">
+        <v>5</v>
+      </c>
+      <c r="R21" s="15"/>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>61</v>
       </c>
@@ -2419,9 +2559,14 @@
       <c r="P22" t="s">
         <v>62</v>
       </c>
-      <c r="Q22" s="1"/>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q22" s="1">
+        <v>5</v>
+      </c>
+      <c r="R22" s="15" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>63</v>
       </c>
@@ -2459,21 +2604,24 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
         <f>SUM(Táblázat3[[#This Row],[2024.09.12]:[2024.12.12]])</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P23" t="s">
         <v>66</v>
       </c>
-      <c r="Q23" s="1"/>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q23" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="R23" s="15"/>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>64</v>
       </c>
@@ -2523,9 +2671,12 @@
       <c r="P24" t="s">
         <v>67</v>
       </c>
-      <c r="Q24" s="1"/>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q24" s="1">
+        <v>4</v>
+      </c>
+      <c r="R24" s="15"/>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>65</v>
       </c>
@@ -2575,9 +2726,12 @@
       <c r="P25" t="s">
         <v>68</v>
       </c>
-      <c r="Q25" s="1"/>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q25" s="1">
+        <v>4</v>
+      </c>
+      <c r="R25" s="15"/>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>7</v>
       </c>
@@ -2627,7 +2781,7 @@
       </c>
       <c r="M26">
         <f>SUM(Táblázat3[2024.12.05])</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N26">
         <f>SUM(Táblázat3[2024.12.12])</f>
@@ -2635,7 +2789,7 @@
       </c>
       <c r="O26">
         <f>SUM(Táblázat3[HIÁNYZÁS])</f>
-        <v>37</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -2649,4 +2803,207 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{403C2633-5B19-4E42-AA38-CF7D743DB56E}">
+  <dimension ref="A1:B23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="142.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="142.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>52</v>
+      </c>
+      <c r="B15" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>54</v>
+      </c>
+      <c r="B16" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>56</v>
+      </c>
+      <c r="B17" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>58</v>
+      </c>
+      <c r="B18" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>60</v>
+      </c>
+      <c r="B19" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>62</v>
+      </c>
+      <c r="B20" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>66</v>
+      </c>
+      <c r="B21" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>67</v>
+      </c>
+      <c r="B22" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>68</v>
+      </c>
+      <c r="B23" t="s">
+        <v>77</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>